--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/Exportar/3.1.RERC_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/Exportar/3.1.RERC_exp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\EXCEL EXPORTAR LISTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700F5777-D0D2-4141-A402-768DB30723AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -23,20 +24,26 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Lista_meses">[2]Variables!$U$4:$U$15</definedName>
-    <definedName name="Tabla_mes">[2]Variables!$U$4:$V$15</definedName>
+    <definedName name="Lista_meses">[1]Variables!$U$4:$U$15</definedName>
+    <definedName name="Tabla_mes">[1]Variables!$U$4:$V$15</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t xml:space="preserve">3.1. </t>
   </si>
@@ -313,9 +320,6 @@
     </r>
   </si>
   <si>
-    <t>Inicio de Operaciones</t>
-  </si>
-  <si>
     <t>Total de Reducción de Emisiones</t>
   </si>
   <si>
@@ -363,11 +367,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -809,9 +813,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -856,64 +860,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -927,21 +883,66 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="12" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="12" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -975,7 +976,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="12 CuadroTexto"/>
+            <xdr:cNvPr id="2" name="12 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1384,6 +1391,124 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="General"/>
+      <sheetName val="Proveedores"/>
+      <sheetName val="Variables"/>
+      <sheetName val="Factores"/>
+      <sheetName val="LAP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="U4" t="str">
+            <v>Enero</v>
+          </cell>
+          <cell r="V4">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="U5" t="str">
+            <v>Febrero</v>
+          </cell>
+          <cell r="V5">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="U6" t="str">
+            <v>Marzo</v>
+          </cell>
+          <cell r="V6">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="U7" t="str">
+            <v>Abril</v>
+          </cell>
+          <cell r="V7">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="U8" t="str">
+            <v>Mayo</v>
+          </cell>
+          <cell r="V8">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="U9" t="str">
+            <v>Junio</v>
+          </cell>
+          <cell r="V9">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="U10" t="str">
+            <v>Julio</v>
+          </cell>
+          <cell r="V10">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="U11" t="str">
+            <v>Agosto</v>
+          </cell>
+          <cell r="V11">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="U12" t="str">
+            <v>Septiembre</v>
+          </cell>
+          <cell r="V12">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="U13" t="str">
+            <v>Octubre</v>
+          </cell>
+          <cell r="V13">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="U14" t="str">
+            <v>Noviembre</v>
+          </cell>
+          <cell r="V14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="U15" t="str">
+            <v>Diciembre</v>
+          </cell>
+          <cell r="V15">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Solar"/>
       <sheetName val="Eólico"/>
       <sheetName val="Mini Hidro"/>
@@ -1487,135 +1612,6 @@
           </cell>
           <cell r="M21">
             <v>144.40856610750004</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="General"/>
-      <sheetName val="Proveedores"/>
-      <sheetName val="LAP"/>
-      <sheetName val="Variables"/>
-      <sheetName val="Factores"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="N3">
-            <v>4380</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="U4" t="str">
-            <v>Enero</v>
-          </cell>
-          <cell r="V4">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="U5" t="str">
-            <v>Febrero</v>
-          </cell>
-          <cell r="V5">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="U6" t="str">
-            <v>Marzo</v>
-          </cell>
-          <cell r="V6">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="U7" t="str">
-            <v>Abril</v>
-          </cell>
-          <cell r="V7">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="U8" t="str">
-            <v>Mayo</v>
-          </cell>
-          <cell r="V8">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="U9" t="str">
-            <v>Junio</v>
-          </cell>
-          <cell r="V9">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="U10" t="str">
-            <v>Julio</v>
-          </cell>
-          <cell r="V10">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="U11" t="str">
-            <v>Agosto</v>
-          </cell>
-          <cell r="V11">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="U12" t="str">
-            <v>Septiembre</v>
-          </cell>
-          <cell r="V12">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="U13" t="str">
-            <v>Octubre</v>
-          </cell>
-          <cell r="V13">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="U14" t="str">
-            <v>Noviembre</v>
-          </cell>
-          <cell r="V14">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="U15" t="str">
-            <v>Diciembre</v>
-          </cell>
-          <cell r="V15">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="7">
-          <cell r="C7">
-            <v>0.109</v>
           </cell>
         </row>
       </sheetData>
@@ -1886,7 +1882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1913,18 +1909,18 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -1976,10 +1972,10 @@
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
@@ -2000,7 +1996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -2027,14 +2023,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -2045,14 +2041,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
@@ -2081,17 +2077,17 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="48" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -2111,7 +2107,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="13" t="s">
         <v>34</v>
       </c>
@@ -2129,7 +2125,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="13" t="s">
         <v>35</v>
       </c>
@@ -2147,7 +2143,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>36</v>
       </c>
@@ -2217,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2233,30 +2229,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
@@ -2331,39 +2327,39 @@
         <v>53</v>
       </c>
       <c r="C4" s="18">
-        <f>[1]Termo!E21</f>
+        <f>[2]Termo!E21</f>
         <v>0</v>
       </c>
       <c r="D4" s="18">
-        <f>[1]Termo!F21</f>
+        <f>[2]Termo!F21</f>
         <v>87.3</v>
       </c>
       <c r="E4" s="18">
-        <f>[1]Termo!G21</f>
+        <f>[2]Termo!G21</f>
         <v>162.80596028750003</v>
       </c>
       <c r="F4" s="18">
-        <f>[1]Termo!H21</f>
+        <f>[2]Termo!H21</f>
         <v>225.78770645500003</v>
       </c>
       <c r="G4" s="18">
-        <f>[1]Termo!I21</f>
+        <f>[2]Termo!I21</f>
         <v>176.42838119582473</v>
       </c>
       <c r="H4" s="18">
-        <f>[1]Termo!J21</f>
+        <f>[2]Termo!J21</f>
         <v>127.26269249881221</v>
       </c>
       <c r="I4" s="18">
-        <f>[1]Termo!K21</f>
+        <f>[2]Termo!K21</f>
         <v>137.68186123579636</v>
       </c>
       <c r="J4" s="18">
-        <f>[1]Termo!L21</f>
+        <f>[2]Termo!L21</f>
         <v>123.62468003891452</v>
       </c>
       <c r="K4" s="18">
-        <f>[1]Termo!M21</f>
+        <f>[2]Termo!M21</f>
         <v>144.40856610750004</v>
       </c>
       <c r="L4" s="18"/>
@@ -2384,39 +2380,39 @@
         <v>48</v>
       </c>
       <c r="C5" s="18">
-        <f>[1]Eólico!C19</f>
+        <f>[2]Eólico!C19</f>
         <v>0</v>
       </c>
       <c r="D5" s="18">
-        <f>[1]Eólico!D19</f>
+        <f>[2]Eólico!D19</f>
         <v>0</v>
       </c>
       <c r="E5" s="18">
-        <f>[1]Eólico!E19</f>
+        <f>[2]Eólico!E19</f>
         <v>0</v>
       </c>
       <c r="F5" s="18">
-        <f>[1]Eólico!F19</f>
+        <f>[2]Eólico!F19</f>
         <v>0</v>
       </c>
       <c r="G5" s="18">
-        <f>[1]Eólico!G19</f>
+        <f>[2]Eólico!G19</f>
         <v>256.31425757690067</v>
       </c>
       <c r="H5" s="18">
-        <f>[1]Eólico!H19</f>
+        <f>[2]Eólico!H19</f>
         <v>590.72240339411269</v>
       </c>
       <c r="I5" s="18">
-        <f>[1]Eólico!I19</f>
+        <f>[2]Eólico!I19</f>
         <v>1054.1146262971033</v>
       </c>
       <c r="J5" s="18">
-        <f>[1]Eólico!J19</f>
+        <f>[2]Eólico!J19</f>
         <v>1065.2272572094798</v>
       </c>
       <c r="K5" s="18">
-        <f>[1]Eólico!K19</f>
+        <f>[2]Eólico!K19</f>
         <v>1493.6338640474999</v>
       </c>
       <c r="L5" s="18"/>
@@ -2437,39 +2433,39 @@
         <v>49</v>
       </c>
       <c r="C6" s="18">
-        <f>[1]Solar!C24</f>
+        <f>[2]Solar!C24</f>
         <v>0</v>
       </c>
       <c r="D6" s="18">
-        <f>[1]Solar!D24</f>
+        <f>[2]Solar!D24</f>
         <v>0</v>
       </c>
       <c r="E6" s="18">
-        <f>[1]Solar!E24</f>
+        <f>[2]Solar!E24</f>
         <v>59.696156812499993</v>
       </c>
       <c r="F6" s="18">
-        <f>[1]Solar!F24</f>
+        <f>[2]Solar!F24</f>
         <v>196.92787796249993</v>
       </c>
       <c r="G6" s="18">
-        <f>[1]Solar!G24</f>
+        <f>[2]Solar!G24</f>
         <v>199.30359694553749</v>
       </c>
       <c r="H6" s="18">
-        <f>[1]Solar!H24</f>
+        <f>[2]Solar!H24</f>
         <v>230.9533075292795</v>
       </c>
       <c r="I6" s="18">
-        <f>[1]Solar!I24</f>
+        <f>[2]Solar!I24</f>
         <v>241.81878086110271</v>
       </c>
       <c r="J6" s="18">
-        <f>[1]Solar!J24</f>
+        <f>[2]Solar!J24</f>
         <v>288.16779198629297</v>
       </c>
       <c r="K6" s="18">
-        <f>[1]Solar!K24</f>
+        <f>[2]Solar!K24</f>
         <v>745.19271519000017</v>
       </c>
       <c r="L6" s="18"/>
@@ -2490,39 +2486,39 @@
         <v>50</v>
       </c>
       <c r="C7" s="18">
-        <f>'[1]Mini Hidro'!D63</f>
+        <f>'[2]Mini Hidro'!D63</f>
         <v>0</v>
       </c>
       <c r="D7" s="18">
-        <f>'[1]Mini Hidro'!E63</f>
+        <f>'[2]Mini Hidro'!E63</f>
         <v>281.10000000000002</v>
       </c>
       <c r="E7" s="18">
-        <f>'[1]Mini Hidro'!F63</f>
+        <f>'[2]Mini Hidro'!F63</f>
         <v>458.86044119500042</v>
       </c>
       <c r="F7" s="18">
-        <f>'[1]Mini Hidro'!G63</f>
+        <f>'[2]Mini Hidro'!G63</f>
         <v>576.80886495749996</v>
       </c>
       <c r="G7" s="18">
-        <f>'[1]Mini Hidro'!H63</f>
+        <f>'[2]Mini Hidro'!H63</f>
         <v>670.18725536020997</v>
       </c>
       <c r="H7" s="18">
-        <f>'[1]Mini Hidro'!I63</f>
+        <f>'[2]Mini Hidro'!I63</f>
         <v>898.22164676963666</v>
       </c>
       <c r="I7" s="18">
-        <f>'[1]Mini Hidro'!J63</f>
+        <f>'[2]Mini Hidro'!J63</f>
         <v>853.75937146733361</v>
       </c>
       <c r="J7" s="18">
-        <f>'[1]Mini Hidro'!K63</f>
+        <f>'[2]Mini Hidro'!K63</f>
         <v>1001.8839071484374</v>
       </c>
       <c r="K7" s="18">
-        <f>'[1]Mini Hidro'!L63</f>
+        <f>'[2]Mini Hidro'!L63</f>
         <v>1290.896805545</v>
       </c>
       <c r="L7" s="18"/>
@@ -2601,7 +2597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2794,95 +2790,84 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="52" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="53" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+    <row r="5" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="52"/>
-    </row>
-    <row r="6" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="C5" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="53"/>
+    </row>
+    <row r="6" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="48">
+      <c r="D6" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="32">
         <v>2018</v>
       </c>
-      <c r="C7" s="49">
-        <v>43518</v>
-      </c>
-      <c r="D7" s="50">
+      <c r="C7" s="33">
         <v>3674</v>
       </c>
-      <c r="E7" s="53">
-        <f>D7*1000*Factores!D10/1000000</f>
+      <c r="D7" s="35">
+        <f>C7*1000*Factores!D10/1000000</f>
         <v>1.594516</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="54">
-        <f>SUM(E7:E7)</f>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="36">
+        <f>SUM(D7:D7)</f>
         <v>1.594516</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
